--- a/Student/Weather.xlsx
+++ b/Student/Weather.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breta\Dropbox\Courses\QA\QAPWAUTMS\StudentFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breta\Dropbox\Courses\QA\QAPWAUTMS\Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76122683-D6A2-4EF3-8424-063FF9507735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF63F45-9C92-41DF-8322-8CE1B31FA0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69443ACC-E76F-4B0C-82F2-A4B8B50E0A13}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69443ACC-E76F-4B0C-82F2-A4B8B50E0A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34598C13-F987-47D1-8685-571133B61832}" name="Wather" displayName="Wather" ref="A1:F65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34598C13-F987-47D1-8685-571133B61832}" name="Weather" displayName="Weather" ref="A1:F65" totalsRowShown="0">
   <autoFilter ref="A1:F65" xr:uid="{356886EC-7AF0-4DEA-A8C4-219A2C7BA2E8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C8011B57-BB85-4D4F-86E0-244D14428997}" name="Location"/>
@@ -447,9 +447,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +487,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -593,7 +593,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,20 +746,20 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F65"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -839,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -859,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -939,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -959,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -979,7 +979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -999,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
